--- a/config/write_sheet.xlsx
+++ b/config/write_sheet.xlsx
@@ -1,72 +1,54 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Imooc_selenium\config\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7440"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8">
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>age</t>
-  </si>
-  <si>
-    <t>sex</t>
-  </si>
-  <si>
-    <t>张三</t>
-  </si>
-  <si>
-    <t>男</t>
-  </si>
-  <si>
-    <t>李四</t>
-  </si>
-  <si>
-    <t>女</t>
-  </si>
-  <si>
-    <t>王五</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -74,27 +56,26 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -382,73 +363,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="n">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="n">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="n">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>